--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H2">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I2">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J2">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N2">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O2">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P2">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q2">
-        <v>0.4831378805353333</v>
+        <v>0.9828404933050001</v>
       </c>
       <c r="R2">
-        <v>4.348240924818</v>
+        <v>8.845564439745001</v>
       </c>
       <c r="S2">
-        <v>0.1341163807808785</v>
+        <v>0.1484463884865538</v>
       </c>
       <c r="T2">
-        <v>0.1341163807808785</v>
+        <v>0.1484463884865537</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H3">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I3">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J3">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.055252</v>
       </c>
       <c r="O3">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P3">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q3">
-        <v>0.1321601122306667</v>
+        <v>0.2013883954377778</v>
       </c>
       <c r="R3">
-        <v>1.189441010076</v>
+        <v>1.81249555894</v>
       </c>
       <c r="S3">
-        <v>0.03668690999002604</v>
+        <v>0.03041732630013118</v>
       </c>
       <c r="T3">
-        <v>0.03668690999002604</v>
+        <v>0.03041732630013117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H4">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I4">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J4">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N4">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O4">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P4">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q4">
-        <v>0.4108137171209999</v>
+        <v>0.9604632839572224</v>
       </c>
       <c r="R4">
-        <v>3.697323454089</v>
+        <v>8.644169555615001</v>
       </c>
       <c r="S4">
-        <v>0.1140395964281644</v>
+        <v>0.1450665766709916</v>
       </c>
       <c r="T4">
-        <v>0.1140395964281644</v>
+        <v>0.1450665766709916</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H5">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I5">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J5">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N5">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O5">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P5">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q5">
-        <v>0.2241610348956666</v>
+        <v>0.4141978434061112</v>
       </c>
       <c r="R5">
-        <v>2.017449314061</v>
+        <v>3.727780590655</v>
       </c>
       <c r="S5">
-        <v>0.06222585295732026</v>
+        <v>0.06255966699723231</v>
       </c>
       <c r="T5">
-        <v>0.06222585295732026</v>
+        <v>0.0625596669972323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H6">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I6">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J6">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N6">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O6">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P6">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q6">
-        <v>0.3940544808962223</v>
+        <v>0.5260586654889999</v>
       </c>
       <c r="R6">
-        <v>3.546490328066001</v>
+        <v>4.734527989401</v>
       </c>
       <c r="S6">
-        <v>0.1093873259321552</v>
+        <v>0.07945491619021476</v>
       </c>
       <c r="T6">
-        <v>0.1093873259321552</v>
+        <v>0.07945491619021476</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H7">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I7">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J7">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>1.055252</v>
       </c>
       <c r="O7">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P7">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q7">
         <v>0.1077917640457778</v>
       </c>
       <c r="R7">
-        <v>0.9701258764120002</v>
+        <v>0.9701258764120001</v>
       </c>
       <c r="S7">
-        <v>0.02992239245614045</v>
+        <v>0.01628066628327743</v>
       </c>
       <c r="T7">
-        <v>0.02992239245614044</v>
+        <v>0.01628066628327743</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H8">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I8">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J8">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N8">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O8">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P8">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q8">
-        <v>0.335065811577</v>
+        <v>0.5140814169252222</v>
       </c>
       <c r="R8">
-        <v>3.015592304193</v>
+        <v>4.626732752327</v>
       </c>
       <c r="S8">
-        <v>0.09301240035726938</v>
+        <v>0.07764589498544147</v>
       </c>
       <c r="T8">
-        <v>0.0930124003572694</v>
+        <v>0.07764589498544147</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H9">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I9">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J9">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N9">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O9">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P9">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q9">
-        <v>0.1828290924841111</v>
+        <v>0.2216965685021111</v>
       </c>
       <c r="R9">
-        <v>1.645461832357</v>
+        <v>1.995269116519</v>
       </c>
       <c r="S9">
-        <v>0.05075233628597302</v>
+        <v>0.0334846347481406</v>
       </c>
       <c r="T9">
-        <v>0.05075233628597302</v>
+        <v>0.0334846347481406</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H10">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I10">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J10">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N10">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O10">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P10">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q10">
-        <v>0.2342451233966667</v>
+        <v>0.9358344191119998</v>
       </c>
       <c r="R10">
-        <v>2.10820611057</v>
+        <v>8.422509772007999</v>
       </c>
       <c r="S10">
-        <v>0.06502513967797575</v>
+        <v>0.1413466790236099</v>
       </c>
       <c r="T10">
-        <v>0.06502513967797575</v>
+        <v>0.1413466790236099</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H11">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I11">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J11">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.055252</v>
       </c>
       <c r="O11">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P11">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q11">
-        <v>0.06407666019333334</v>
+        <v>0.1917566414328889</v>
       </c>
       <c r="R11">
-        <v>0.57668994174</v>
+        <v>1.725809772896</v>
       </c>
       <c r="S11">
-        <v>0.01778732346164599</v>
+        <v>0.0289625642033756</v>
       </c>
       <c r="T11">
-        <v>0.01778732346164599</v>
+        <v>0.0289625642033756</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H12">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I12">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J12">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N12">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O12">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P12">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q12">
-        <v>0.199179393165</v>
+        <v>0.9145274391351109</v>
       </c>
       <c r="R12">
-        <v>1.792614538485</v>
+        <v>8.230746952215998</v>
       </c>
       <c r="S12">
-        <v>0.05529108855596724</v>
+        <v>0.1381285126490353</v>
       </c>
       <c r="T12">
-        <v>0.05529108855596725</v>
+        <v>0.1381285126490353</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H13">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I13">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J13">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N13">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O13">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P13">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q13">
-        <v>0.1086824929183333</v>
+        <v>0.3943881034835555</v>
       </c>
       <c r="R13">
-        <v>0.9781424362649999</v>
+        <v>3.549492931351999</v>
       </c>
       <c r="S13">
-        <v>0.03016965382283728</v>
+        <v>0.05956764095801953</v>
       </c>
       <c r="T13">
-        <v>0.03016965382283728</v>
+        <v>0.05956764095801952</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H14">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I14">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J14">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N14">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O14">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P14">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q14">
-        <v>0.2806149377484445</v>
+        <v>0.098257441147</v>
       </c>
       <c r="R14">
-        <v>2.525534439736</v>
+        <v>0.8843169703230001</v>
       </c>
       <c r="S14">
-        <v>0.07789714149959004</v>
+        <v>0.01484061999842314</v>
       </c>
       <c r="T14">
-        <v>0.07789714149959003</v>
+        <v>0.01484061999842314</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H15">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I15">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J15">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.055252</v>
       </c>
       <c r="O15">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P15">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q15">
-        <v>0.07676090648355557</v>
+        <v>0.02013338740844445</v>
       </c>
       <c r="R15">
-        <v>0.6908481583520001</v>
+        <v>0.181200486676</v>
       </c>
       <c r="S15">
-        <v>0.02130839948137962</v>
+        <v>0.003040909149697352</v>
       </c>
       <c r="T15">
-        <v>0.02130839948137961</v>
+        <v>0.003040909149697352</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H16">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I16">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J16">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N16">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O16">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P16">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q16">
-        <v>0.238607797692</v>
+        <v>0.09602032602455554</v>
       </c>
       <c r="R16">
-        <v>2.147470179228</v>
+        <v>0.864182934221</v>
       </c>
       <c r="S16">
-        <v>0.06623619372815198</v>
+        <v>0.01450273031762783</v>
       </c>
       <c r="T16">
-        <v>0.06623619372815198</v>
+        <v>0.01450273031762783</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H17">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I17">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J17">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N17">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O17">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P17">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q17">
-        <v>0.1301966527302222</v>
+        <v>0.04140857087077777</v>
       </c>
       <c r="R17">
-        <v>1.171769874572</v>
+        <v>0.372677137837</v>
       </c>
       <c r="S17">
-        <v>0.0361418645845247</v>
+        <v>0.006254273038228306</v>
       </c>
       <c r="T17">
-        <v>0.03614186458452469</v>
+        <v>0.006254273038228306</v>
       </c>
     </row>
   </sheetData>
